--- a/src/test/resources/inputdata/InputData.xlsx
+++ b/src/test/resources/inputdata/InputData.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtiwa1\workspace\AutomationFramework\src\test\resources\inputdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Frameworks/GitHub_ProjectAutomatedTests/src/test/resources/inputdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B2B941-C9DB-8046-9361-CDCC3826D66B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="8340"/>
+    <workbookView xWindow="2460" yWindow="1260" windowWidth="21360" windowHeight="12920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="InboxPage" sheetId="2" r:id="rId2"/>
+    <sheet name="Environment" sheetId="4" r:id="rId1"/>
+    <sheet name="Environment_Config" sheetId="3" r:id="rId2"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId3"/>
+    <sheet name="InboxPage" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -51,36 +54,6 @@
     <t>TestCase_5</t>
   </si>
   <si>
-    <t>pswd1</t>
-  </si>
-  <si>
-    <t>UserName1</t>
-  </si>
-  <si>
-    <t>UserName2</t>
-  </si>
-  <si>
-    <t>UserName3</t>
-  </si>
-  <si>
-    <t>UserName4</t>
-  </si>
-  <si>
-    <t>UserName5</t>
-  </si>
-  <si>
-    <t>pswd2</t>
-  </si>
-  <si>
-    <t>pswd3</t>
-  </si>
-  <si>
-    <t>pswd4</t>
-  </si>
-  <si>
-    <t>pswd5</t>
-  </si>
-  <si>
     <t>EMails</t>
   </si>
   <si>
@@ -117,23 +90,56 @@
     <t>hsbc5</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Phone1</t>
+    <t>accountmanager</t>
+  </si>
+  <si>
+    <t>toortoor</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>https://alchemy-marketing-app-qa.gale.agency/login</t>
+  </si>
+  <si>
+    <t>https://alchemy-marketing-app-dev.gale.agency/login</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>AppUrl</t>
+  </si>
+  <si>
+    <t>Alchemy Configuration</t>
+  </si>
+  <si>
+    <t>LoginStatus</t>
+  </si>
+  <si>
+    <t>FakeAccount</t>
+  </si>
+  <si>
+    <t>FakePassword</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +147,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3933FF"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,14 +192,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,96 +501,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0D1749-1961-1F4D-8DBB-0E71B196A5D4}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>IF(A2="QA",G1, IF(A2="DEV",G2))</f>
+        <v>https://alchemy-marketing-app-qa.gale.agency/login</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{05B656D4-773C-EB43-AB09-382DC6B5EFA9}">
+      <formula1>$F$1:$F$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{435DA3DE-9DEE-B54D-BBAE-FF2C33575397}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FC280E-9201-7F4E-AAB3-9B3EA302F698}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>Environment!B2</f>
+        <v>https://alchemy-marketing-app-qa.gale.agency/login</v>
       </c>
     </row>
   </sheetData>
@@ -540,84 +591,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
